--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3651.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3651.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.378515060157553</v>
+        <v>1.924893617630005</v>
       </c>
       <c r="B1">
-        <v>1.502074369431678</v>
+        <v>1.950632214546204</v>
       </c>
       <c r="C1">
-        <v>1.705156549528777</v>
+        <v>1.858479261398315</v>
       </c>
       <c r="D1">
-        <v>2.704375522433139</v>
+        <v>1.024555087089539</v>
       </c>
       <c r="E1">
-        <v>7.210728071632549</v>
+        <v>0.7011957764625549</v>
       </c>
     </row>
   </sheetData>
